--- a/assignments/PTET_itemized_deduction_credit/NY_IRS_data_2017and2022_salt.xlsx
+++ b/assignments/PTET_itemized_deduction_credit/NY_IRS_data_2017and2022_salt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\MTA\MTA2025\assignments\PTET_itemized_deduction_credit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756C06F-9BE4-4369-9F6E-410451AAF1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A96830-8A53-45A0-8494-0E62AA246F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017_v_2022" sheetId="4" r:id="rId1"/>
@@ -1645,28 +1645,31 @@
     <xf numFmtId="5" fontId="7" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1692,9 +1695,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8827F1B1-E49E-4E98-AD9B-F092913633AF}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
@@ -5415,10 +5415,10 @@
   <dimension ref="A1:L195"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80:XFD91"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11713,36 +11713,36 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="93" t="s">
+      <c r="A170" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="93"/>
-      <c r="C170" s="93"/>
-      <c r="D170" s="93"/>
-      <c r="E170" s="93"/>
-      <c r="F170" s="93"/>
-      <c r="G170" s="93"/>
-      <c r="H170" s="93"/>
-      <c r="I170" s="93"/>
-      <c r="J170" s="93"/>
-      <c r="K170" s="93"/>
-      <c r="L170" s="93"/>
+      <c r="B170" s="98"/>
+      <c r="C170" s="98"/>
+      <c r="D170" s="98"/>
+      <c r="E170" s="98"/>
+      <c r="F170" s="98"/>
+      <c r="G170" s="98"/>
+      <c r="H170" s="98"/>
+      <c r="I170" s="98"/>
+      <c r="J170" s="98"/>
+      <c r="K170" s="98"/>
+      <c r="L170" s="98"/>
     </row>
     <row r="171" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="92" t="s">
+      <c r="A171" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="B171" s="92"/>
-      <c r="C171" s="92"/>
-      <c r="D171" s="92"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="92"/>
-      <c r="G171" s="92"/>
-      <c r="H171" s="92"/>
-      <c r="I171" s="92"/>
-      <c r="J171" s="92"/>
-      <c r="K171" s="92"/>
-      <c r="L171" s="92"/>
+      <c r="B171" s="95"/>
+      <c r="C171" s="95"/>
+      <c r="D171" s="95"/>
+      <c r="E171" s="95"/>
+      <c r="F171" s="95"/>
+      <c r="G171" s="95"/>
+      <c r="H171" s="95"/>
+      <c r="I171" s="95"/>
+      <c r="J171" s="95"/>
+      <c r="K171" s="95"/>
+      <c r="L171" s="95"/>
     </row>
     <row r="172" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="94" t="s">
@@ -11777,20 +11777,20 @@
       <c r="L173" s="94"/>
     </row>
     <row r="174" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="95" t="s">
+      <c r="A174" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B174" s="95"/>
-      <c r="C174" s="95"/>
-      <c r="D174" s="95"/>
-      <c r="E174" s="95"/>
-      <c r="F174" s="95"/>
-      <c r="G174" s="95"/>
-      <c r="H174" s="95"/>
-      <c r="I174" s="95"/>
-      <c r="J174" s="95"/>
-      <c r="K174" s="95"/>
-      <c r="L174" s="95"/>
+      <c r="B174" s="99"/>
+      <c r="C174" s="99"/>
+      <c r="D174" s="99"/>
+      <c r="E174" s="99"/>
+      <c r="F174" s="99"/>
+      <c r="G174" s="99"/>
+      <c r="H174" s="99"/>
+      <c r="I174" s="99"/>
+      <c r="J174" s="99"/>
+      <c r="K174" s="99"/>
+      <c r="L174" s="99"/>
     </row>
     <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="94" t="s">
@@ -11809,347 +11809,332 @@
       <c r="L175" s="94"/>
     </row>
     <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="92" t="s">
+      <c r="A176" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="B176" s="92"/>
-      <c r="C176" s="92"/>
-      <c r="D176" s="92"/>
-      <c r="E176" s="92"/>
-      <c r="F176" s="92"/>
-      <c r="G176" s="92"/>
-      <c r="H176" s="92"/>
-      <c r="I176" s="92"/>
-      <c r="J176" s="92"/>
-      <c r="K176" s="92"/>
-      <c r="L176" s="92"/>
+      <c r="B176" s="95"/>
+      <c r="C176" s="95"/>
+      <c r="D176" s="95"/>
+      <c r="E176" s="95"/>
+      <c r="F176" s="95"/>
+      <c r="G176" s="95"/>
+      <c r="H176" s="95"/>
+      <c r="I176" s="95"/>
+      <c r="J176" s="95"/>
+      <c r="K176" s="95"/>
+      <c r="L176" s="95"/>
     </row>
     <row r="177" spans="1:12" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="92" t="s">
+      <c r="A177" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="B177" s="92"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="92"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="92"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="92"/>
-      <c r="I177" s="92"/>
-      <c r="J177" s="92"/>
-      <c r="K177" s="92"/>
-      <c r="L177" s="92"/>
+      <c r="B177" s="95"/>
+      <c r="C177" s="95"/>
+      <c r="D177" s="95"/>
+      <c r="E177" s="95"/>
+      <c r="F177" s="95"/>
+      <c r="G177" s="95"/>
+      <c r="H177" s="95"/>
+      <c r="I177" s="95"/>
+      <c r="J177" s="95"/>
+      <c r="K177" s="95"/>
+      <c r="L177" s="95"/>
     </row>
     <row r="178" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="92" t="s">
+      <c r="A178" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B178" s="92"/>
-      <c r="C178" s="92"/>
-      <c r="D178" s="92"/>
-      <c r="E178" s="92"/>
-      <c r="F178" s="92"/>
-      <c r="G178" s="92"/>
-      <c r="H178" s="92"/>
-      <c r="I178" s="92"/>
-      <c r="J178" s="92"/>
-      <c r="K178" s="92"/>
-      <c r="L178" s="92"/>
+      <c r="B178" s="95"/>
+      <c r="C178" s="95"/>
+      <c r="D178" s="95"/>
+      <c r="E178" s="95"/>
+      <c r="F178" s="95"/>
+      <c r="G178" s="95"/>
+      <c r="H178" s="95"/>
+      <c r="I178" s="95"/>
+      <c r="J178" s="95"/>
+      <c r="K178" s="95"/>
+      <c r="L178" s="95"/>
     </row>
     <row r="179" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="99" t="s">
+      <c r="A179" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B179" s="99"/>
-      <c r="C179" s="99"/>
-      <c r="D179" s="99"/>
-      <c r="E179" s="99"/>
-      <c r="F179" s="99"/>
-      <c r="G179" s="99"/>
-      <c r="H179" s="99"/>
-      <c r="I179" s="99"/>
-      <c r="J179" s="99"/>
-      <c r="K179" s="99"/>
-      <c r="L179" s="99"/>
+      <c r="B179" s="96"/>
+      <c r="C179" s="96"/>
+      <c r="D179" s="96"/>
+      <c r="E179" s="96"/>
+      <c r="F179" s="96"/>
+      <c r="G179" s="96"/>
+      <c r="H179" s="96"/>
+      <c r="I179" s="96"/>
+      <c r="J179" s="96"/>
+      <c r="K179" s="96"/>
+      <c r="L179" s="96"/>
     </row>
     <row r="180" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="97" t="s">
+      <c r="A180" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B180" s="97"/>
-      <c r="C180" s="97"/>
-      <c r="D180" s="97"/>
-      <c r="E180" s="97"/>
-      <c r="F180" s="97"/>
-      <c r="G180" s="97"/>
-      <c r="H180" s="97"/>
-      <c r="I180" s="97"/>
-      <c r="J180" s="97"/>
-      <c r="K180" s="97"/>
-      <c r="L180" s="97"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="92"/>
+      <c r="D180" s="92"/>
+      <c r="E180" s="92"/>
+      <c r="F180" s="92"/>
+      <c r="G180" s="92"/>
+      <c r="H180" s="92"/>
+      <c r="I180" s="92"/>
+      <c r="J180" s="92"/>
+      <c r="K180" s="92"/>
+      <c r="L180" s="92"/>
     </row>
     <row r="181" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="96" t="s">
+      <c r="A181" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="B181" s="96"/>
-      <c r="C181" s="96"/>
-      <c r="D181" s="96"/>
-      <c r="E181" s="96"/>
-      <c r="F181" s="96"/>
-      <c r="G181" s="96"/>
-      <c r="H181" s="96"/>
-      <c r="I181" s="96"/>
-      <c r="J181" s="96"/>
-      <c r="K181" s="96"/>
-      <c r="L181" s="96"/>
+      <c r="B181" s="93"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="93"/>
+      <c r="E181" s="93"/>
+      <c r="F181" s="93"/>
+      <c r="G181" s="93"/>
+      <c r="H181" s="93"/>
+      <c r="I181" s="93"/>
+      <c r="J181" s="93"/>
+      <c r="K181" s="93"/>
+      <c r="L181" s="93"/>
     </row>
     <row r="182" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="96" t="s">
+      <c r="A182" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="B182" s="96"/>
-      <c r="C182" s="96"/>
-      <c r="D182" s="96"/>
-      <c r="E182" s="96"/>
-      <c r="F182" s="96"/>
-      <c r="G182" s="96"/>
-      <c r="H182" s="96"/>
-      <c r="I182" s="96"/>
-      <c r="J182" s="96"/>
-      <c r="K182" s="96"/>
-      <c r="L182" s="96"/>
+      <c r="B182" s="93"/>
+      <c r="C182" s="93"/>
+      <c r="D182" s="93"/>
+      <c r="E182" s="93"/>
+      <c r="F182" s="93"/>
+      <c r="G182" s="93"/>
+      <c r="H182" s="93"/>
+      <c r="I182" s="93"/>
+      <c r="J182" s="93"/>
+      <c r="K182" s="93"/>
+      <c r="L182" s="93"/>
     </row>
     <row r="183" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="96" t="s">
+      <c r="A183" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B183" s="96"/>
-      <c r="C183" s="96"/>
-      <c r="D183" s="96"/>
-      <c r="E183" s="96"/>
-      <c r="F183" s="96"/>
-      <c r="G183" s="96"/>
-      <c r="H183" s="96"/>
-      <c r="I183" s="96"/>
-      <c r="J183" s="96"/>
-      <c r="K183" s="96"/>
-      <c r="L183" s="96"/>
+      <c r="B183" s="93"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="93"/>
+      <c r="E183" s="93"/>
+      <c r="F183" s="93"/>
+      <c r="G183" s="93"/>
+      <c r="H183" s="93"/>
+      <c r="I183" s="93"/>
+      <c r="J183" s="93"/>
+      <c r="K183" s="93"/>
+      <c r="L183" s="93"/>
     </row>
     <row r="184" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="96" t="s">
+      <c r="A184" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="B184" s="96"/>
-      <c r="C184" s="96"/>
-      <c r="D184" s="96"/>
-      <c r="E184" s="96"/>
-      <c r="F184" s="96"/>
-      <c r="G184" s="96"/>
-      <c r="H184" s="96"/>
-      <c r="I184" s="96"/>
-      <c r="J184" s="96"/>
-      <c r="K184" s="96"/>
-      <c r="L184" s="96"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="93"/>
+      <c r="D184" s="93"/>
+      <c r="E184" s="93"/>
+      <c r="F184" s="93"/>
+      <c r="G184" s="93"/>
+      <c r="H184" s="93"/>
+      <c r="I184" s="93"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="93"/>
+      <c r="L184" s="93"/>
     </row>
     <row r="185" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="96" t="s">
+      <c r="A185" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B185" s="96"/>
-      <c r="C185" s="96"/>
-      <c r="D185" s="96"/>
-      <c r="E185" s="96"/>
-      <c r="F185" s="96"/>
-      <c r="G185" s="96"/>
-      <c r="H185" s="96"/>
-      <c r="I185" s="96"/>
-      <c r="J185" s="96"/>
-      <c r="K185" s="96"/>
-      <c r="L185" s="96"/>
+      <c r="B185" s="93"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="93"/>
+      <c r="E185" s="93"/>
+      <c r="F185" s="93"/>
+      <c r="G185" s="93"/>
+      <c r="H185" s="93"/>
+      <c r="I185" s="93"/>
+      <c r="J185" s="93"/>
+      <c r="K185" s="93"/>
+      <c r="L185" s="93"/>
     </row>
     <row r="186" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="96" t="s">
+      <c r="A186" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B186" s="96"/>
-      <c r="C186" s="96"/>
-      <c r="D186" s="96"/>
-      <c r="E186" s="96"/>
-      <c r="F186" s="96"/>
-      <c r="G186" s="96"/>
-      <c r="H186" s="96"/>
-      <c r="I186" s="96"/>
-      <c r="J186" s="96"/>
-      <c r="K186" s="96"/>
-      <c r="L186" s="96"/>
+      <c r="B186" s="93"/>
+      <c r="C186" s="93"/>
+      <c r="D186" s="93"/>
+      <c r="E186" s="93"/>
+      <c r="F186" s="93"/>
+      <c r="G186" s="93"/>
+      <c r="H186" s="93"/>
+      <c r="I186" s="93"/>
+      <c r="J186" s="93"/>
+      <c r="K186" s="93"/>
+      <c r="L186" s="93"/>
     </row>
     <row r="187" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="98" t="s">
+      <c r="A187" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B187" s="96"/>
-      <c r="C187" s="96"/>
-      <c r="D187" s="96"/>
-      <c r="E187" s="96"/>
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
-      <c r="H187" s="96"/>
-      <c r="I187" s="96"/>
-      <c r="J187" s="96"/>
-      <c r="K187" s="96"/>
-      <c r="L187" s="96"/>
+      <c r="B187" s="93"/>
+      <c r="C187" s="93"/>
+      <c r="D187" s="93"/>
+      <c r="E187" s="93"/>
+      <c r="F187" s="93"/>
+      <c r="G187" s="93"/>
+      <c r="H187" s="93"/>
+      <c r="I187" s="93"/>
+      <c r="J187" s="93"/>
+      <c r="K187" s="93"/>
+      <c r="L187" s="93"/>
     </row>
     <row r="188" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="96" t="s">
+      <c r="A188" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B188" s="96"/>
-      <c r="C188" s="96"/>
-      <c r="D188" s="96"/>
-      <c r="E188" s="96"/>
-      <c r="F188" s="96"/>
-      <c r="G188" s="96"/>
-      <c r="H188" s="96"/>
-      <c r="I188" s="96"/>
-      <c r="J188" s="96"/>
-      <c r="K188" s="96"/>
-      <c r="L188" s="96"/>
+      <c r="B188" s="93"/>
+      <c r="C188" s="93"/>
+      <c r="D188" s="93"/>
+      <c r="E188" s="93"/>
+      <c r="F188" s="93"/>
+      <c r="G188" s="93"/>
+      <c r="H188" s="93"/>
+      <c r="I188" s="93"/>
+      <c r="J188" s="93"/>
+      <c r="K188" s="93"/>
+      <c r="L188" s="93"/>
     </row>
     <row r="189" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="97" t="s">
+      <c r="A189" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B189" s="97"/>
-      <c r="C189" s="97"/>
-      <c r="D189" s="97"/>
-      <c r="E189" s="97"/>
-      <c r="F189" s="97"/>
-      <c r="G189" s="97"/>
-      <c r="H189" s="97"/>
-      <c r="I189" s="97"/>
-      <c r="J189" s="97"/>
-      <c r="K189" s="97"/>
-      <c r="L189" s="97"/>
+      <c r="B189" s="92"/>
+      <c r="C189" s="92"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
+      <c r="F189" s="92"/>
+      <c r="G189" s="92"/>
+      <c r="H189" s="92"/>
+      <c r="I189" s="92"/>
+      <c r="J189" s="92"/>
+      <c r="K189" s="92"/>
+      <c r="L189" s="92"/>
     </row>
     <row r="190" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="96" t="s">
+      <c r="A190" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B190" s="96"/>
-      <c r="C190" s="96"/>
-      <c r="D190" s="96"/>
-      <c r="E190" s="96"/>
-      <c r="F190" s="96"/>
-      <c r="G190" s="96"/>
-      <c r="H190" s="96"/>
-      <c r="I190" s="96"/>
-      <c r="J190" s="96"/>
-      <c r="K190" s="96"/>
-      <c r="L190" s="96"/>
+      <c r="B190" s="93"/>
+      <c r="C190" s="93"/>
+      <c r="D190" s="93"/>
+      <c r="E190" s="93"/>
+      <c r="F190" s="93"/>
+      <c r="G190" s="93"/>
+      <c r="H190" s="93"/>
+      <c r="I190" s="93"/>
+      <c r="J190" s="93"/>
+      <c r="K190" s="93"/>
+      <c r="L190" s="93"/>
     </row>
     <row r="191" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="96" t="s">
+      <c r="A191" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B191" s="96"/>
-      <c r="C191" s="96"/>
-      <c r="D191" s="96"/>
-      <c r="E191" s="96"/>
-      <c r="F191" s="96"/>
-      <c r="G191" s="96"/>
-      <c r="H191" s="96"/>
-      <c r="I191" s="96"/>
-      <c r="J191" s="96"/>
-      <c r="K191" s="96"/>
-      <c r="L191" s="96"/>
+      <c r="B191" s="93"/>
+      <c r="C191" s="93"/>
+      <c r="D191" s="93"/>
+      <c r="E191" s="93"/>
+      <c r="F191" s="93"/>
+      <c r="G191" s="93"/>
+      <c r="H191" s="93"/>
+      <c r="I191" s="93"/>
+      <c r="J191" s="93"/>
+      <c r="K191" s="93"/>
+      <c r="L191" s="93"/>
     </row>
     <row r="192" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="96" t="s">
+      <c r="A192" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B192" s="96"/>
-      <c r="C192" s="96"/>
-      <c r="D192" s="96"/>
-      <c r="E192" s="96"/>
-      <c r="F192" s="96"/>
-      <c r="G192" s="96"/>
-      <c r="H192" s="96"/>
-      <c r="I192" s="96"/>
-      <c r="J192" s="96"/>
-      <c r="K192" s="96"/>
-      <c r="L192" s="96"/>
+      <c r="B192" s="93"/>
+      <c r="C192" s="93"/>
+      <c r="D192" s="93"/>
+      <c r="E192" s="93"/>
+      <c r="F192" s="93"/>
+      <c r="G192" s="93"/>
+      <c r="H192" s="93"/>
+      <c r="I192" s="93"/>
+      <c r="J192" s="93"/>
+      <c r="K192" s="93"/>
+      <c r="L192" s="93"/>
     </row>
     <row r="193" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="96" t="s">
+      <c r="A193" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B193" s="96"/>
-      <c r="C193" s="96"/>
-      <c r="D193" s="96"/>
-      <c r="E193" s="96"/>
-      <c r="F193" s="96"/>
-      <c r="G193" s="96"/>
-      <c r="H193" s="96"/>
-      <c r="I193" s="96"/>
-      <c r="J193" s="96"/>
-      <c r="K193" s="96"/>
-      <c r="L193" s="96"/>
+      <c r="B193" s="93"/>
+      <c r="C193" s="93"/>
+      <c r="D193" s="93"/>
+      <c r="E193" s="93"/>
+      <c r="F193" s="93"/>
+      <c r="G193" s="93"/>
+      <c r="H193" s="93"/>
+      <c r="I193" s="93"/>
+      <c r="J193" s="93"/>
+      <c r="K193" s="93"/>
+      <c r="L193" s="93"/>
     </row>
     <row r="194" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="96" t="s">
+      <c r="A194" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B194" s="96"/>
-      <c r="C194" s="96"/>
-      <c r="D194" s="96"/>
-      <c r="E194" s="96"/>
-      <c r="F194" s="96"/>
-      <c r="G194" s="96"/>
-      <c r="H194" s="96"/>
-      <c r="I194" s="96"/>
-      <c r="J194" s="96"/>
-      <c r="K194" s="96"/>
-      <c r="L194" s="96"/>
+      <c r="B194" s="93"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="93"/>
+      <c r="E194" s="93"/>
+      <c r="F194" s="93"/>
+      <c r="G194" s="93"/>
+      <c r="H194" s="93"/>
+      <c r="I194" s="93"/>
+      <c r="J194" s="93"/>
+      <c r="K194" s="93"/>
+      <c r="L194" s="93"/>
     </row>
     <row r="195" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="96" t="s">
+      <c r="A195" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B195" s="96"/>
-      <c r="C195" s="96"/>
-      <c r="D195" s="96"/>
-      <c r="E195" s="96"/>
-      <c r="F195" s="96"/>
-      <c r="G195" s="96"/>
-      <c r="H195" s="96"/>
-      <c r="I195" s="96"/>
-      <c r="J195" s="96"/>
-      <c r="K195" s="96"/>
-      <c r="L195" s="96"/>
+      <c r="B195" s="93"/>
+      <c r="C195" s="93"/>
+      <c r="D195" s="93"/>
+      <c r="E195" s="93"/>
+      <c r="F195" s="93"/>
+      <c r="G195" s="93"/>
+      <c r="H195" s="93"/>
+      <c r="I195" s="93"/>
+      <c r="J195" s="93"/>
+      <c r="K195" s="93"/>
+      <c r="L195" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A180:L180"/>
-    <mergeCell ref="A181:L181"/>
-    <mergeCell ref="A182:L182"/>
-    <mergeCell ref="A173:L173"/>
-    <mergeCell ref="A175:L175"/>
-    <mergeCell ref="A177:L177"/>
-    <mergeCell ref="A179:L179"/>
-    <mergeCell ref="A195:L195"/>
-    <mergeCell ref="A183:L183"/>
-    <mergeCell ref="A184:L184"/>
-    <mergeCell ref="A185:L185"/>
-    <mergeCell ref="A188:L188"/>
-    <mergeCell ref="A190:L190"/>
-    <mergeCell ref="A191:L191"/>
-    <mergeCell ref="A192:L192"/>
-    <mergeCell ref="A193:L193"/>
-    <mergeCell ref="A194:L194"/>
-    <mergeCell ref="A189:L189"/>
-    <mergeCell ref="A186:L186"/>
-    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="A171:L171"/>
     <mergeCell ref="A176:L176"/>
     <mergeCell ref="A178:L178"/>
@@ -12166,11 +12151,26 @@
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="A172:L172"/>
     <mergeCell ref="A174:L174"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A195:L195"/>
+    <mergeCell ref="A183:L183"/>
+    <mergeCell ref="A184:L184"/>
+    <mergeCell ref="A185:L185"/>
+    <mergeCell ref="A188:L188"/>
+    <mergeCell ref="A190:L190"/>
+    <mergeCell ref="A191:L191"/>
+    <mergeCell ref="A192:L192"/>
+    <mergeCell ref="A193:L193"/>
+    <mergeCell ref="A194:L194"/>
+    <mergeCell ref="A189:L189"/>
+    <mergeCell ref="A186:L186"/>
+    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="A180:L180"/>
+    <mergeCell ref="A181:L181"/>
+    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="A173:L173"/>
+    <mergeCell ref="A175:L175"/>
+    <mergeCell ref="A177:L177"/>
+    <mergeCell ref="A179:L179"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A187" r:id="rId1" xr:uid="{3858ED91-662C-40F5-8566-7857659E6C2F}"/>
@@ -12199,42 +12199,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="A2" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="77" t="s">
@@ -12251,8 +12251,8 @@
       <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="106"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="80" t="s">
         <v>146</v>
       </c>
@@ -12285,8 +12285,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="81"/>
       <c r="D5" s="84"/>
       <c r="E5" s="84"/>
@@ -12299,8 +12299,8 @@
       <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="82"/>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -18029,20 +18029,20 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="93" t="s">
+      <c r="A158" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B158" s="93"/>
-      <c r="C158" s="93"/>
-      <c r="D158" s="93"/>
-      <c r="E158" s="93"/>
-      <c r="F158" s="93"/>
-      <c r="G158" s="93"/>
-      <c r="H158" s="93"/>
-      <c r="I158" s="93"/>
-      <c r="J158" s="93"/>
-      <c r="K158" s="93"/>
-      <c r="L158" s="93"/>
+      <c r="B158" s="98"/>
+      <c r="C158" s="98"/>
+      <c r="D158" s="98"/>
+      <c r="E158" s="98"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="98"/>
+      <c r="H158" s="98"/>
+      <c r="I158" s="98"/>
+      <c r="J158" s="98"/>
+      <c r="K158" s="98"/>
+      <c r="L158" s="98"/>
     </row>
     <row r="159" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="94" t="s">
@@ -18109,401 +18109,413 @@
       <c r="L162" s="94"/>
     </row>
     <row r="163" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="92" t="s">
+      <c r="A163" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="B163" s="92"/>
-      <c r="C163" s="92"/>
-      <c r="D163" s="92"/>
-      <c r="E163" s="92"/>
-      <c r="F163" s="92"/>
-      <c r="G163" s="92"/>
-      <c r="H163" s="92"/>
-      <c r="I163" s="92"/>
-      <c r="J163" s="92"/>
-      <c r="K163" s="92"/>
-      <c r="L163" s="92"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="95"/>
+      <c r="D163" s="95"/>
+      <c r="E163" s="95"/>
+      <c r="F163" s="95"/>
+      <c r="G163" s="95"/>
+      <c r="H163" s="95"/>
+      <c r="I163" s="95"/>
+      <c r="J163" s="95"/>
+      <c r="K163" s="95"/>
+      <c r="L163" s="95"/>
     </row>
     <row r="164" spans="1:12" s="53" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="92" t="s">
+      <c r="A164" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="B164" s="92"/>
-      <c r="C164" s="92"/>
-      <c r="D164" s="92"/>
-      <c r="E164" s="92"/>
-      <c r="F164" s="92"/>
-      <c r="G164" s="92"/>
-      <c r="H164" s="92"/>
-      <c r="I164" s="92"/>
-      <c r="J164" s="92"/>
-      <c r="K164" s="92"/>
-      <c r="L164" s="92"/>
+      <c r="B164" s="95"/>
+      <c r="C164" s="95"/>
+      <c r="D164" s="95"/>
+      <c r="E164" s="95"/>
+      <c r="F164" s="95"/>
+      <c r="G164" s="95"/>
+      <c r="H164" s="95"/>
+      <c r="I164" s="95"/>
+      <c r="J164" s="95"/>
+      <c r="K164" s="95"/>
+      <c r="L164" s="95"/>
     </row>
     <row r="165" spans="1:12" s="53" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="92" t="s">
+      <c r="A165" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="92"/>
-      <c r="C165" s="92"/>
-      <c r="D165" s="92"/>
-      <c r="E165" s="92"/>
-      <c r="F165" s="92"/>
-      <c r="G165" s="92"/>
-      <c r="H165" s="92"/>
-      <c r="I165" s="92"/>
-      <c r="J165" s="92"/>
-      <c r="K165" s="92"/>
-      <c r="L165" s="92"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="95"/>
+      <c r="D165" s="95"/>
+      <c r="E165" s="95"/>
+      <c r="F165" s="95"/>
+      <c r="G165" s="95"/>
+      <c r="H165" s="95"/>
+      <c r="I165" s="95"/>
+      <c r="J165" s="95"/>
+      <c r="K165" s="95"/>
+      <c r="L165" s="95"/>
     </row>
     <row r="166" spans="1:12" s="54" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="92" t="s">
+      <c r="A166" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B166" s="92"/>
-      <c r="C166" s="92"/>
-      <c r="D166" s="92"/>
-      <c r="E166" s="92"/>
-      <c r="F166" s="92"/>
-      <c r="G166" s="92"/>
-      <c r="H166" s="92"/>
-      <c r="I166" s="92"/>
-      <c r="J166" s="92"/>
-      <c r="K166" s="92"/>
-      <c r="L166" s="92"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="95"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="95"/>
+      <c r="G166" s="95"/>
+      <c r="H166" s="95"/>
+      <c r="I166" s="95"/>
+      <c r="J166" s="95"/>
+      <c r="K166" s="95"/>
+      <c r="L166" s="95"/>
     </row>
     <row r="167" spans="1:12" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="108" t="s">
+      <c r="A167" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="B167" s="108"/>
-      <c r="C167" s="108"/>
-      <c r="D167" s="108"/>
-      <c r="E167" s="108"/>
-      <c r="F167" s="108"/>
-      <c r="G167" s="108"/>
-      <c r="H167" s="108"/>
-      <c r="I167" s="108"/>
-      <c r="J167" s="108"/>
-      <c r="K167" s="108"/>
-      <c r="L167" s="108"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="100"/>
+      <c r="D167" s="100"/>
+      <c r="E167" s="100"/>
+      <c r="F167" s="100"/>
+      <c r="G167" s="100"/>
+      <c r="H167" s="100"/>
+      <c r="I167" s="100"/>
+      <c r="J167" s="100"/>
+      <c r="K167" s="100"/>
+      <c r="L167" s="100"/>
     </row>
     <row r="168" spans="1:12" s="54" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="108" t="s">
+      <c r="A168" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="B168" s="108"/>
-      <c r="C168" s="108"/>
-      <c r="D168" s="108"/>
-      <c r="E168" s="108"/>
-      <c r="F168" s="108"/>
-      <c r="G168" s="108"/>
-      <c r="H168" s="108"/>
-      <c r="I168" s="108"/>
-      <c r="J168" s="108"/>
-      <c r="K168" s="108"/>
-      <c r="L168" s="108"/>
+      <c r="B168" s="100"/>
+      <c r="C168" s="100"/>
+      <c r="D168" s="100"/>
+      <c r="E168" s="100"/>
+      <c r="F168" s="100"/>
+      <c r="G168" s="100"/>
+      <c r="H168" s="100"/>
+      <c r="I168" s="100"/>
+      <c r="J168" s="100"/>
+      <c r="K168" s="100"/>
+      <c r="L168" s="100"/>
     </row>
     <row r="169" spans="1:12" s="53" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="97" t="s">
+      <c r="A169" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="B169" s="97"/>
-      <c r="C169" s="97"/>
-      <c r="D169" s="97"/>
-      <c r="E169" s="97"/>
-      <c r="F169" s="97"/>
-      <c r="G169" s="97"/>
-      <c r="H169" s="97"/>
-      <c r="I169" s="97"/>
-      <c r="J169" s="97"/>
-      <c r="K169" s="97"/>
-      <c r="L169" s="97"/>
+      <c r="B169" s="92"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="92"/>
+      <c r="H169" s="92"/>
+      <c r="I169" s="92"/>
+      <c r="J169" s="92"/>
+      <c r="K169" s="92"/>
+      <c r="L169" s="92"/>
     </row>
     <row r="170" spans="1:12" s="54" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="99" t="s">
+      <c r="A170" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="B170" s="99"/>
-      <c r="C170" s="99"/>
-      <c r="D170" s="99"/>
-      <c r="E170" s="99"/>
-      <c r="F170" s="99"/>
-      <c r="G170" s="99"/>
-      <c r="H170" s="99"/>
-      <c r="I170" s="99"/>
-      <c r="J170" s="99"/>
-      <c r="K170" s="99"/>
-      <c r="L170" s="99"/>
+      <c r="B170" s="96"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="96"/>
+      <c r="E170" s="96"/>
+      <c r="F170" s="96"/>
+      <c r="G170" s="96"/>
+      <c r="H170" s="96"/>
+      <c r="I170" s="96"/>
+      <c r="J170" s="96"/>
+      <c r="K170" s="96"/>
+      <c r="L170" s="96"/>
     </row>
     <row r="171" spans="1:12" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="108" t="s">
+      <c r="A171" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="B171" s="108"/>
-      <c r="C171" s="108"/>
-      <c r="D171" s="108"/>
-      <c r="E171" s="108"/>
-      <c r="F171" s="108"/>
-      <c r="G171" s="108"/>
-      <c r="H171" s="108"/>
-      <c r="I171" s="108"/>
-      <c r="J171" s="108"/>
-      <c r="K171" s="108"/>
-      <c r="L171" s="108"/>
+      <c r="B171" s="100"/>
+      <c r="C171" s="100"/>
+      <c r="D171" s="100"/>
+      <c r="E171" s="100"/>
+      <c r="F171" s="100"/>
+      <c r="G171" s="100"/>
+      <c r="H171" s="100"/>
+      <c r="I171" s="100"/>
+      <c r="J171" s="100"/>
+      <c r="K171" s="100"/>
+      <c r="L171" s="100"/>
     </row>
     <row r="172" spans="1:12" s="54" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="96" t="s">
+      <c r="A172" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B172" s="96"/>
-      <c r="C172" s="96"/>
-      <c r="D172" s="96"/>
-      <c r="E172" s="96"/>
-      <c r="F172" s="96"/>
-      <c r="G172" s="96"/>
-      <c r="H172" s="96"/>
-      <c r="I172" s="96"/>
-      <c r="J172" s="96"/>
-      <c r="K172" s="96"/>
-      <c r="L172" s="96"/>
+      <c r="B172" s="93"/>
+      <c r="C172" s="93"/>
+      <c r="D172" s="93"/>
+      <c r="E172" s="93"/>
+      <c r="F172" s="93"/>
+      <c r="G172" s="93"/>
+      <c r="H172" s="93"/>
+      <c r="I172" s="93"/>
+      <c r="J172" s="93"/>
+      <c r="K172" s="93"/>
+      <c r="L172" s="93"/>
     </row>
     <row r="173" spans="1:12" s="54" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="96" t="s">
+      <c r="A173" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="B173" s="96"/>
-      <c r="C173" s="96"/>
-      <c r="D173" s="96"/>
-      <c r="E173" s="96"/>
-      <c r="F173" s="96"/>
-      <c r="G173" s="96"/>
-      <c r="H173" s="96"/>
-      <c r="I173" s="96"/>
-      <c r="J173" s="96"/>
-      <c r="K173" s="96"/>
-      <c r="L173" s="96"/>
+      <c r="B173" s="93"/>
+      <c r="C173" s="93"/>
+      <c r="D173" s="93"/>
+      <c r="E173" s="93"/>
+      <c r="F173" s="93"/>
+      <c r="G173" s="93"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="93"/>
+      <c r="J173" s="93"/>
+      <c r="K173" s="93"/>
+      <c r="L173" s="93"/>
     </row>
     <row r="174" spans="1:12" s="54" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="96" t="s">
+      <c r="A174" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="B174" s="96"/>
-      <c r="C174" s="96"/>
-      <c r="D174" s="96"/>
-      <c r="E174" s="96"/>
-      <c r="F174" s="96"/>
-      <c r="G174" s="96"/>
-      <c r="H174" s="96"/>
-      <c r="I174" s="96"/>
-      <c r="J174" s="96"/>
-      <c r="K174" s="96"/>
-      <c r="L174" s="96"/>
+      <c r="B174" s="93"/>
+      <c r="C174" s="93"/>
+      <c r="D174" s="93"/>
+      <c r="E174" s="93"/>
+      <c r="F174" s="93"/>
+      <c r="G174" s="93"/>
+      <c r="H174" s="93"/>
+      <c r="I174" s="93"/>
+      <c r="J174" s="93"/>
+      <c r="K174" s="93"/>
+      <c r="L174" s="93"/>
     </row>
     <row r="175" spans="1:12" s="53" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="97" t="s">
+      <c r="A175" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="B175" s="97"/>
-      <c r="C175" s="97"/>
-      <c r="D175" s="97"/>
-      <c r="E175" s="97"/>
-      <c r="F175" s="97"/>
-      <c r="G175" s="97"/>
-      <c r="H175" s="97"/>
-      <c r="I175" s="97"/>
-      <c r="J175" s="97"/>
-      <c r="K175" s="97"/>
-      <c r="L175" s="97"/>
+      <c r="B175" s="92"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="92"/>
+      <c r="H175" s="92"/>
+      <c r="I175" s="92"/>
+      <c r="J175" s="92"/>
+      <c r="K175" s="92"/>
+      <c r="L175" s="92"/>
     </row>
     <row r="176" spans="1:12" s="53" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="96" t="s">
+      <c r="A176" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="B176" s="96"/>
-      <c r="C176" s="96"/>
-      <c r="D176" s="96"/>
-      <c r="E176" s="96"/>
-      <c r="F176" s="96"/>
-      <c r="G176" s="96"/>
-      <c r="H176" s="96"/>
-      <c r="I176" s="96"/>
-      <c r="J176" s="96"/>
-      <c r="K176" s="96"/>
-      <c r="L176" s="96"/>
+      <c r="B176" s="93"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="93"/>
+      <c r="E176" s="93"/>
+      <c r="F176" s="93"/>
+      <c r="G176" s="93"/>
+      <c r="H176" s="93"/>
+      <c r="I176" s="93"/>
+      <c r="J176" s="93"/>
+      <c r="K176" s="93"/>
+      <c r="L176" s="93"/>
     </row>
     <row r="177" spans="1:12" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="96" t="s">
+      <c r="A177" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="B177" s="96"/>
-      <c r="C177" s="96"/>
-      <c r="D177" s="96"/>
-      <c r="E177" s="96"/>
-      <c r="F177" s="96"/>
-      <c r="G177" s="96"/>
-      <c r="H177" s="96"/>
-      <c r="I177" s="96"/>
-      <c r="J177" s="96"/>
-      <c r="K177" s="96"/>
-      <c r="L177" s="96"/>
+      <c r="B177" s="93"/>
+      <c r="C177" s="93"/>
+      <c r="D177" s="93"/>
+      <c r="E177" s="93"/>
+      <c r="F177" s="93"/>
+      <c r="G177" s="93"/>
+      <c r="H177" s="93"/>
+      <c r="I177" s="93"/>
+      <c r="J177" s="93"/>
+      <c r="K177" s="93"/>
+      <c r="L177" s="93"/>
     </row>
     <row r="178" spans="1:12" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="96" t="s">
+      <c r="A178" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="B178" s="96"/>
-      <c r="C178" s="96"/>
-      <c r="D178" s="96"/>
-      <c r="E178" s="96"/>
-      <c r="F178" s="96"/>
-      <c r="G178" s="96"/>
-      <c r="H178" s="96"/>
-      <c r="I178" s="96"/>
-      <c r="J178" s="96"/>
-      <c r="K178" s="96"/>
-      <c r="L178" s="96"/>
+      <c r="B178" s="93"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="93"/>
+      <c r="E178" s="93"/>
+      <c r="F178" s="93"/>
+      <c r="G178" s="93"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="93"/>
+      <c r="J178" s="93"/>
+      <c r="K178" s="93"/>
+      <c r="L178" s="93"/>
     </row>
     <row r="179" spans="1:12" s="54" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="96" t="s">
+      <c r="A179" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="B179" s="96"/>
-      <c r="C179" s="96"/>
-      <c r="D179" s="96"/>
-      <c r="E179" s="96"/>
-      <c r="F179" s="96"/>
-      <c r="G179" s="96"/>
-      <c r="H179" s="96"/>
-      <c r="I179" s="96"/>
-      <c r="J179" s="96"/>
-      <c r="K179" s="96"/>
-      <c r="L179" s="96"/>
+      <c r="B179" s="93"/>
+      <c r="C179" s="93"/>
+      <c r="D179" s="93"/>
+      <c r="E179" s="93"/>
+      <c r="F179" s="93"/>
+      <c r="G179" s="93"/>
+      <c r="H179" s="93"/>
+      <c r="I179" s="93"/>
+      <c r="J179" s="93"/>
+      <c r="K179" s="93"/>
+      <c r="L179" s="93"/>
     </row>
     <row r="180" spans="1:12" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="97" t="s">
+      <c r="A180" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B180" s="97"/>
-      <c r="C180" s="97"/>
-      <c r="D180" s="97"/>
-      <c r="E180" s="97"/>
-      <c r="F180" s="97"/>
-      <c r="G180" s="97"/>
-      <c r="H180" s="97"/>
-      <c r="I180" s="97"/>
-      <c r="J180" s="97"/>
-      <c r="K180" s="97"/>
-      <c r="L180" s="97"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="92"/>
+      <c r="D180" s="92"/>
+      <c r="E180" s="92"/>
+      <c r="F180" s="92"/>
+      <c r="G180" s="92"/>
+      <c r="H180" s="92"/>
+      <c r="I180" s="92"/>
+      <c r="J180" s="92"/>
+      <c r="K180" s="92"/>
+      <c r="L180" s="92"/>
     </row>
     <row r="181" spans="1:12" s="54" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="96" t="s">
+      <c r="A181" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="B181" s="96"/>
-      <c r="C181" s="96"/>
-      <c r="D181" s="96"/>
-      <c r="E181" s="96"/>
-      <c r="F181" s="96"/>
-      <c r="G181" s="96"/>
-      <c r="H181" s="96"/>
-      <c r="I181" s="96"/>
-      <c r="J181" s="96"/>
-      <c r="K181" s="96"/>
-      <c r="L181" s="96"/>
+      <c r="B181" s="93"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="93"/>
+      <c r="E181" s="93"/>
+      <c r="F181" s="93"/>
+      <c r="G181" s="93"/>
+      <c r="H181" s="93"/>
+      <c r="I181" s="93"/>
+      <c r="J181" s="93"/>
+      <c r="K181" s="93"/>
+      <c r="L181" s="93"/>
     </row>
     <row r="182" spans="1:12" s="54" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="96" t="s">
+      <c r="A182" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="B182" s="96"/>
-      <c r="C182" s="96"/>
-      <c r="D182" s="96"/>
-      <c r="E182" s="96"/>
-      <c r="F182" s="96"/>
-      <c r="G182" s="96"/>
-      <c r="H182" s="96"/>
-      <c r="I182" s="96"/>
-      <c r="J182" s="96"/>
-      <c r="K182" s="96"/>
-      <c r="L182" s="96"/>
+      <c r="B182" s="93"/>
+      <c r="C182" s="93"/>
+      <c r="D182" s="93"/>
+      <c r="E182" s="93"/>
+      <c r="F182" s="93"/>
+      <c r="G182" s="93"/>
+      <c r="H182" s="93"/>
+      <c r="I182" s="93"/>
+      <c r="J182" s="93"/>
+      <c r="K182" s="93"/>
+      <c r="L182" s="93"/>
     </row>
     <row r="183" spans="1:12" s="54" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="96" t="s">
+      <c r="A183" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B183" s="96"/>
-      <c r="C183" s="96"/>
-      <c r="D183" s="96"/>
-      <c r="E183" s="96"/>
-      <c r="F183" s="96"/>
-      <c r="G183" s="96"/>
-      <c r="H183" s="96"/>
-      <c r="I183" s="96"/>
-      <c r="J183" s="96"/>
-      <c r="K183" s="96"/>
-      <c r="L183" s="96"/>
+      <c r="B183" s="93"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="93"/>
+      <c r="E183" s="93"/>
+      <c r="F183" s="93"/>
+      <c r="G183" s="93"/>
+      <c r="H183" s="93"/>
+      <c r="I183" s="93"/>
+      <c r="J183" s="93"/>
+      <c r="K183" s="93"/>
+      <c r="L183" s="93"/>
     </row>
     <row r="184" spans="1:12" s="54" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="96" t="s">
+      <c r="A184" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="B184" s="96"/>
-      <c r="C184" s="96"/>
-      <c r="D184" s="96"/>
-      <c r="E184" s="96"/>
-      <c r="F184" s="96"/>
-      <c r="G184" s="96"/>
-      <c r="H184" s="96"/>
-      <c r="I184" s="96"/>
-      <c r="J184" s="96"/>
-      <c r="K184" s="96"/>
-      <c r="L184" s="96"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="93"/>
+      <c r="D184" s="93"/>
+      <c r="E184" s="93"/>
+      <c r="F184" s="93"/>
+      <c r="G184" s="93"/>
+      <c r="H184" s="93"/>
+      <c r="I184" s="93"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="93"/>
+      <c r="L184" s="93"/>
     </row>
     <row r="185" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="96" t="s">
+      <c r="A185" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B185" s="96"/>
-      <c r="C185" s="96"/>
-      <c r="D185" s="96"/>
-      <c r="E185" s="96"/>
-      <c r="F185" s="96"/>
-      <c r="G185" s="96"/>
-      <c r="H185" s="96"/>
-      <c r="I185" s="96"/>
-      <c r="J185" s="96"/>
-      <c r="K185" s="96"/>
-      <c r="L185" s="96"/>
+      <c r="B185" s="93"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="93"/>
+      <c r="E185" s="93"/>
+      <c r="F185" s="93"/>
+      <c r="G185" s="93"/>
+      <c r="H185" s="93"/>
+      <c r="I185" s="93"/>
+      <c r="J185" s="93"/>
+      <c r="K185" s="93"/>
+      <c r="L185" s="93"/>
     </row>
     <row r="186" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="96" t="s">
+      <c r="A186" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="B186" s="96"/>
-      <c r="C186" s="96"/>
-      <c r="D186" s="96"/>
-      <c r="E186" s="96"/>
-      <c r="F186" s="96"/>
-      <c r="G186" s="96"/>
-      <c r="H186" s="96"/>
-      <c r="I186" s="96"/>
-      <c r="J186" s="96"/>
-      <c r="K186" s="96"/>
-      <c r="L186" s="96"/>
+      <c r="B186" s="93"/>
+      <c r="C186" s="93"/>
+      <c r="D186" s="93"/>
+      <c r="E186" s="93"/>
+      <c r="F186" s="93"/>
+      <c r="G186" s="93"/>
+      <c r="H186" s="93"/>
+      <c r="I186" s="93"/>
+      <c r="J186" s="93"/>
+      <c r="K186" s="93"/>
+      <c r="L186" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A183:L183"/>
-    <mergeCell ref="A184:L184"/>
-    <mergeCell ref="A185:L185"/>
-    <mergeCell ref="A186:L186"/>
-    <mergeCell ref="A177:L177"/>
-    <mergeCell ref="A178:L178"/>
-    <mergeCell ref="A179:L179"/>
-    <mergeCell ref="A180:L180"/>
-    <mergeCell ref="A181:L181"/>
-    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A164:L164"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A158:L158"/>
+    <mergeCell ref="A159:L159"/>
+    <mergeCell ref="A160:L160"/>
+    <mergeCell ref="A161:L161"/>
+    <mergeCell ref="A162:L162"/>
+    <mergeCell ref="A163:L163"/>
     <mergeCell ref="A176:L176"/>
     <mergeCell ref="A165:L165"/>
     <mergeCell ref="A166:L166"/>
@@ -18516,28 +18528,16 @@
     <mergeCell ref="A173:L173"/>
     <mergeCell ref="A174:L174"/>
     <mergeCell ref="A175:L175"/>
-    <mergeCell ref="A164:L164"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A158:L158"/>
-    <mergeCell ref="A159:L159"/>
-    <mergeCell ref="A160:L160"/>
-    <mergeCell ref="A161:L161"/>
-    <mergeCell ref="A162:L162"/>
-    <mergeCell ref="A163:L163"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A183:L183"/>
+    <mergeCell ref="A184:L184"/>
+    <mergeCell ref="A185:L185"/>
+    <mergeCell ref="A186:L186"/>
+    <mergeCell ref="A177:L177"/>
+    <mergeCell ref="A178:L178"/>
+    <mergeCell ref="A179:L179"/>
+    <mergeCell ref="A180:L180"/>
+    <mergeCell ref="A181:L181"/>
+    <mergeCell ref="A182:L182"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -18549,11 +18549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1450F620-23C6-48FD-AB69-A0EDB28C7784}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="M78:R130"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25240,36 +25240,36 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="93" t="s">
+      <c r="A183" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="93"/>
-      <c r="C183" s="93"/>
-      <c r="D183" s="93"/>
-      <c r="E183" s="93"/>
-      <c r="F183" s="93"/>
-      <c r="G183" s="93"/>
-      <c r="H183" s="93"/>
-      <c r="I183" s="93"/>
-      <c r="J183" s="93"/>
-      <c r="K183" s="93"/>
-      <c r="L183" s="93"/>
+      <c r="B183" s="98"/>
+      <c r="C183" s="98"/>
+      <c r="D183" s="98"/>
+      <c r="E183" s="98"/>
+      <c r="F183" s="98"/>
+      <c r="G183" s="98"/>
+      <c r="H183" s="98"/>
+      <c r="I183" s="98"/>
+      <c r="J183" s="98"/>
+      <c r="K183" s="98"/>
+      <c r="L183" s="98"/>
     </row>
     <row r="184" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="92" t="s">
+      <c r="A184" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="B184" s="92"/>
-      <c r="C184" s="92"/>
-      <c r="D184" s="92"/>
-      <c r="E184" s="92"/>
-      <c r="F184" s="92"/>
-      <c r="G184" s="92"/>
-      <c r="H184" s="92"/>
-      <c r="I184" s="92"/>
-      <c r="J184" s="92"/>
-      <c r="K184" s="92"/>
-      <c r="L184" s="92"/>
+      <c r="B184" s="95"/>
+      <c r="C184" s="95"/>
+      <c r="D184" s="95"/>
+      <c r="E184" s="95"/>
+      <c r="F184" s="95"/>
+      <c r="G184" s="95"/>
+      <c r="H184" s="95"/>
+      <c r="I184" s="95"/>
+      <c r="J184" s="95"/>
+      <c r="K184" s="95"/>
+      <c r="L184" s="95"/>
     </row>
     <row r="185" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="94" t="s">
@@ -25304,20 +25304,20 @@
       <c r="L186" s="94"/>
     </row>
     <row r="187" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="95" t="s">
+      <c r="A187" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B187" s="95"/>
-      <c r="C187" s="95"/>
-      <c r="D187" s="95"/>
-      <c r="E187" s="95"/>
-      <c r="F187" s="95"/>
-      <c r="G187" s="95"/>
-      <c r="H187" s="95"/>
-      <c r="I187" s="95"/>
-      <c r="J187" s="95"/>
-      <c r="K187" s="95"/>
-      <c r="L187" s="95"/>
+      <c r="B187" s="99"/>
+      <c r="C187" s="99"/>
+      <c r="D187" s="99"/>
+      <c r="E187" s="99"/>
+      <c r="F187" s="99"/>
+      <c r="G187" s="99"/>
+      <c r="H187" s="99"/>
+      <c r="I187" s="99"/>
+      <c r="J187" s="99"/>
+      <c r="K187" s="99"/>
+      <c r="L187" s="99"/>
     </row>
     <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="94" t="s">
@@ -25336,334 +25336,349 @@
       <c r="L188" s="94"/>
     </row>
     <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="92" t="s">
+      <c r="A189" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="B189" s="92"/>
-      <c r="C189" s="92"/>
-      <c r="D189" s="92"/>
-      <c r="E189" s="92"/>
-      <c r="F189" s="92"/>
-      <c r="G189" s="92"/>
-      <c r="H189" s="92"/>
-      <c r="I189" s="92"/>
-      <c r="J189" s="92"/>
-      <c r="K189" s="92"/>
-      <c r="L189" s="92"/>
+      <c r="B189" s="95"/>
+      <c r="C189" s="95"/>
+      <c r="D189" s="95"/>
+      <c r="E189" s="95"/>
+      <c r="F189" s="95"/>
+      <c r="G189" s="95"/>
+      <c r="H189" s="95"/>
+      <c r="I189" s="95"/>
+      <c r="J189" s="95"/>
+      <c r="K189" s="95"/>
+      <c r="L189" s="95"/>
     </row>
     <row r="190" spans="1:12" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="92" t="s">
+      <c r="A190" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="B190" s="92"/>
-      <c r="C190" s="92"/>
-      <c r="D190" s="92"/>
-      <c r="E190" s="92"/>
-      <c r="F190" s="92"/>
-      <c r="G190" s="92"/>
-      <c r="H190" s="92"/>
-      <c r="I190" s="92"/>
-      <c r="J190" s="92"/>
-      <c r="K190" s="92"/>
-      <c r="L190" s="92"/>
+      <c r="B190" s="95"/>
+      <c r="C190" s="95"/>
+      <c r="D190" s="95"/>
+      <c r="E190" s="95"/>
+      <c r="F190" s="95"/>
+      <c r="G190" s="95"/>
+      <c r="H190" s="95"/>
+      <c r="I190" s="95"/>
+      <c r="J190" s="95"/>
+      <c r="K190" s="95"/>
+      <c r="L190" s="95"/>
     </row>
     <row r="191" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="92" t="s">
+      <c r="A191" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B191" s="92"/>
-      <c r="C191" s="92"/>
-      <c r="D191" s="92"/>
-      <c r="E191" s="92"/>
-      <c r="F191" s="92"/>
-      <c r="G191" s="92"/>
-      <c r="H191" s="92"/>
-      <c r="I191" s="92"/>
-      <c r="J191" s="92"/>
-      <c r="K191" s="92"/>
-      <c r="L191" s="92"/>
+      <c r="B191" s="95"/>
+      <c r="C191" s="95"/>
+      <c r="D191" s="95"/>
+      <c r="E191" s="95"/>
+      <c r="F191" s="95"/>
+      <c r="G191" s="95"/>
+      <c r="H191" s="95"/>
+      <c r="I191" s="95"/>
+      <c r="J191" s="95"/>
+      <c r="K191" s="95"/>
+      <c r="L191" s="95"/>
     </row>
     <row r="192" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="99" t="s">
+      <c r="A192" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B192" s="99"/>
-      <c r="C192" s="99"/>
-      <c r="D192" s="99"/>
-      <c r="E192" s="99"/>
-      <c r="F192" s="99"/>
-      <c r="G192" s="99"/>
-      <c r="H192" s="99"/>
-      <c r="I192" s="99"/>
-      <c r="J192" s="99"/>
-      <c r="K192" s="99"/>
-      <c r="L192" s="99"/>
+      <c r="B192" s="96"/>
+      <c r="C192" s="96"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="96"/>
+      <c r="G192" s="96"/>
+      <c r="H192" s="96"/>
+      <c r="I192" s="96"/>
+      <c r="J192" s="96"/>
+      <c r="K192" s="96"/>
+      <c r="L192" s="96"/>
     </row>
     <row r="193" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="97" t="s">
+      <c r="A193" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B193" s="97"/>
-      <c r="C193" s="97"/>
-      <c r="D193" s="97"/>
-      <c r="E193" s="97"/>
-      <c r="F193" s="97"/>
-      <c r="G193" s="97"/>
-      <c r="H193" s="97"/>
-      <c r="I193" s="97"/>
-      <c r="J193" s="97"/>
-      <c r="K193" s="97"/>
-      <c r="L193" s="97"/>
+      <c r="B193" s="92"/>
+      <c r="C193" s="92"/>
+      <c r="D193" s="92"/>
+      <c r="E193" s="92"/>
+      <c r="F193" s="92"/>
+      <c r="G193" s="92"/>
+      <c r="H193" s="92"/>
+      <c r="I193" s="92"/>
+      <c r="J193" s="92"/>
+      <c r="K193" s="92"/>
+      <c r="L193" s="92"/>
     </row>
     <row r="194" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="96" t="s">
+      <c r="A194" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="B194" s="96"/>
-      <c r="C194" s="96"/>
-      <c r="D194" s="96"/>
-      <c r="E194" s="96"/>
-      <c r="F194" s="96"/>
-      <c r="G194" s="96"/>
-      <c r="H194" s="96"/>
-      <c r="I194" s="96"/>
-      <c r="J194" s="96"/>
-      <c r="K194" s="96"/>
-      <c r="L194" s="96"/>
+      <c r="B194" s="93"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="93"/>
+      <c r="E194" s="93"/>
+      <c r="F194" s="93"/>
+      <c r="G194" s="93"/>
+      <c r="H194" s="93"/>
+      <c r="I194" s="93"/>
+      <c r="J194" s="93"/>
+      <c r="K194" s="93"/>
+      <c r="L194" s="93"/>
     </row>
     <row r="195" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="96" t="s">
+      <c r="A195" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="B195" s="96"/>
-      <c r="C195" s="96"/>
-      <c r="D195" s="96"/>
-      <c r="E195" s="96"/>
-      <c r="F195" s="96"/>
-      <c r="G195" s="96"/>
-      <c r="H195" s="96"/>
-      <c r="I195" s="96"/>
-      <c r="J195" s="96"/>
-      <c r="K195" s="96"/>
-      <c r="L195" s="96"/>
+      <c r="B195" s="93"/>
+      <c r="C195" s="93"/>
+      <c r="D195" s="93"/>
+      <c r="E195" s="93"/>
+      <c r="F195" s="93"/>
+      <c r="G195" s="93"/>
+      <c r="H195" s="93"/>
+      <c r="I195" s="93"/>
+      <c r="J195" s="93"/>
+      <c r="K195" s="93"/>
+      <c r="L195" s="93"/>
     </row>
     <row r="196" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="96" t="s">
+      <c r="A196" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B196" s="96"/>
-      <c r="C196" s="96"/>
-      <c r="D196" s="96"/>
-      <c r="E196" s="96"/>
-      <c r="F196" s="96"/>
-      <c r="G196" s="96"/>
-      <c r="H196" s="96"/>
-      <c r="I196" s="96"/>
-      <c r="J196" s="96"/>
-      <c r="K196" s="96"/>
-      <c r="L196" s="96"/>
+      <c r="B196" s="93"/>
+      <c r="C196" s="93"/>
+      <c r="D196" s="93"/>
+      <c r="E196" s="93"/>
+      <c r="F196" s="93"/>
+      <c r="G196" s="93"/>
+      <c r="H196" s="93"/>
+      <c r="I196" s="93"/>
+      <c r="J196" s="93"/>
+      <c r="K196" s="93"/>
+      <c r="L196" s="93"/>
     </row>
     <row r="197" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="96" t="s">
+      <c r="A197" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="B197" s="96"/>
-      <c r="C197" s="96"/>
-      <c r="D197" s="96"/>
-      <c r="E197" s="96"/>
-      <c r="F197" s="96"/>
-      <c r="G197" s="96"/>
-      <c r="H197" s="96"/>
-      <c r="I197" s="96"/>
-      <c r="J197" s="96"/>
-      <c r="K197" s="96"/>
-      <c r="L197" s="96"/>
+      <c r="B197" s="93"/>
+      <c r="C197" s="93"/>
+      <c r="D197" s="93"/>
+      <c r="E197" s="93"/>
+      <c r="F197" s="93"/>
+      <c r="G197" s="93"/>
+      <c r="H197" s="93"/>
+      <c r="I197" s="93"/>
+      <c r="J197" s="93"/>
+      <c r="K197" s="93"/>
+      <c r="L197" s="93"/>
     </row>
     <row r="198" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="96" t="s">
+      <c r="A198" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B198" s="96"/>
-      <c r="C198" s="96"/>
-      <c r="D198" s="96"/>
-      <c r="E198" s="96"/>
-      <c r="F198" s="96"/>
-      <c r="G198" s="96"/>
-      <c r="H198" s="96"/>
-      <c r="I198" s="96"/>
-      <c r="J198" s="96"/>
-      <c r="K198" s="96"/>
-      <c r="L198" s="96"/>
+      <c r="B198" s="93"/>
+      <c r="C198" s="93"/>
+      <c r="D198" s="93"/>
+      <c r="E198" s="93"/>
+      <c r="F198" s="93"/>
+      <c r="G198" s="93"/>
+      <c r="H198" s="93"/>
+      <c r="I198" s="93"/>
+      <c r="J198" s="93"/>
+      <c r="K198" s="93"/>
+      <c r="L198" s="93"/>
     </row>
     <row r="199" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="96" t="s">
+      <c r="A199" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B199" s="96"/>
-      <c r="C199" s="96"/>
-      <c r="D199" s="96"/>
-      <c r="E199" s="96"/>
-      <c r="F199" s="96"/>
-      <c r="G199" s="96"/>
-      <c r="H199" s="96"/>
-      <c r="I199" s="96"/>
-      <c r="J199" s="96"/>
-      <c r="K199" s="96"/>
-      <c r="L199" s="96"/>
+      <c r="B199" s="93"/>
+      <c r="C199" s="93"/>
+      <c r="D199" s="93"/>
+      <c r="E199" s="93"/>
+      <c r="F199" s="93"/>
+      <c r="G199" s="93"/>
+      <c r="H199" s="93"/>
+      <c r="I199" s="93"/>
+      <c r="J199" s="93"/>
+      <c r="K199" s="93"/>
+      <c r="L199" s="93"/>
     </row>
     <row r="200" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="98" t="s">
+      <c r="A200" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B200" s="96"/>
-      <c r="C200" s="96"/>
-      <c r="D200" s="96"/>
-      <c r="E200" s="96"/>
-      <c r="F200" s="96"/>
-      <c r="G200" s="96"/>
-      <c r="H200" s="96"/>
-      <c r="I200" s="96"/>
-      <c r="J200" s="96"/>
-      <c r="K200" s="96"/>
-      <c r="L200" s="96"/>
+      <c r="B200" s="93"/>
+      <c r="C200" s="93"/>
+      <c r="D200" s="93"/>
+      <c r="E200" s="93"/>
+      <c r="F200" s="93"/>
+      <c r="G200" s="93"/>
+      <c r="H200" s="93"/>
+      <c r="I200" s="93"/>
+      <c r="J200" s="93"/>
+      <c r="K200" s="93"/>
+      <c r="L200" s="93"/>
     </row>
     <row r="201" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="96" t="s">
+      <c r="A201" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B201" s="96"/>
-      <c r="C201" s="96"/>
-      <c r="D201" s="96"/>
-      <c r="E201" s="96"/>
-      <c r="F201" s="96"/>
-      <c r="G201" s="96"/>
-      <c r="H201" s="96"/>
-      <c r="I201" s="96"/>
-      <c r="J201" s="96"/>
-      <c r="K201" s="96"/>
-      <c r="L201" s="96"/>
+      <c r="B201" s="93"/>
+      <c r="C201" s="93"/>
+      <c r="D201" s="93"/>
+      <c r="E201" s="93"/>
+      <c r="F201" s="93"/>
+      <c r="G201" s="93"/>
+      <c r="H201" s="93"/>
+      <c r="I201" s="93"/>
+      <c r="J201" s="93"/>
+      <c r="K201" s="93"/>
+      <c r="L201" s="93"/>
     </row>
     <row r="202" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="97" t="s">
+      <c r="A202" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B202" s="97"/>
-      <c r="C202" s="97"/>
-      <c r="D202" s="97"/>
-      <c r="E202" s="97"/>
-      <c r="F202" s="97"/>
-      <c r="G202" s="97"/>
-      <c r="H202" s="97"/>
-      <c r="I202" s="97"/>
-      <c r="J202" s="97"/>
-      <c r="K202" s="97"/>
-      <c r="L202" s="97"/>
+      <c r="B202" s="92"/>
+      <c r="C202" s="92"/>
+      <c r="D202" s="92"/>
+      <c r="E202" s="92"/>
+      <c r="F202" s="92"/>
+      <c r="G202" s="92"/>
+      <c r="H202" s="92"/>
+      <c r="I202" s="92"/>
+      <c r="J202" s="92"/>
+      <c r="K202" s="92"/>
+      <c r="L202" s="92"/>
     </row>
     <row r="203" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="96" t="s">
+      <c r="A203" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B203" s="96"/>
-      <c r="C203" s="96"/>
-      <c r="D203" s="96"/>
-      <c r="E203" s="96"/>
-      <c r="F203" s="96"/>
-      <c r="G203" s="96"/>
-      <c r="H203" s="96"/>
-      <c r="I203" s="96"/>
-      <c r="J203" s="96"/>
-      <c r="K203" s="96"/>
-      <c r="L203" s="96"/>
+      <c r="B203" s="93"/>
+      <c r="C203" s="93"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="93"/>
+      <c r="F203" s="93"/>
+      <c r="G203" s="93"/>
+      <c r="H203" s="93"/>
+      <c r="I203" s="93"/>
+      <c r="J203" s="93"/>
+      <c r="K203" s="93"/>
+      <c r="L203" s="93"/>
     </row>
     <row r="204" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="96" t="s">
+      <c r="A204" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B204" s="96"/>
-      <c r="C204" s="96"/>
-      <c r="D204" s="96"/>
-      <c r="E204" s="96"/>
-      <c r="F204" s="96"/>
-      <c r="G204" s="96"/>
-      <c r="H204" s="96"/>
-      <c r="I204" s="96"/>
-      <c r="J204" s="96"/>
-      <c r="K204" s="96"/>
-      <c r="L204" s="96"/>
+      <c r="B204" s="93"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="93"/>
+      <c r="E204" s="93"/>
+      <c r="F204" s="93"/>
+      <c r="G204" s="93"/>
+      <c r="H204" s="93"/>
+      <c r="I204" s="93"/>
+      <c r="J204" s="93"/>
+      <c r="K204" s="93"/>
+      <c r="L204" s="93"/>
     </row>
     <row r="205" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="96" t="s">
+      <c r="A205" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B205" s="96"/>
-      <c r="C205" s="96"/>
-      <c r="D205" s="96"/>
-      <c r="E205" s="96"/>
-      <c r="F205" s="96"/>
-      <c r="G205" s="96"/>
-      <c r="H205" s="96"/>
-      <c r="I205" s="96"/>
-      <c r="J205" s="96"/>
-      <c r="K205" s="96"/>
-      <c r="L205" s="96"/>
+      <c r="B205" s="93"/>
+      <c r="C205" s="93"/>
+      <c r="D205" s="93"/>
+      <c r="E205" s="93"/>
+      <c r="F205" s="93"/>
+      <c r="G205" s="93"/>
+      <c r="H205" s="93"/>
+      <c r="I205" s="93"/>
+      <c r="J205" s="93"/>
+      <c r="K205" s="93"/>
+      <c r="L205" s="93"/>
     </row>
     <row r="206" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="96" t="s">
+      <c r="A206" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B206" s="96"/>
-      <c r="C206" s="96"/>
-      <c r="D206" s="96"/>
-      <c r="E206" s="96"/>
-      <c r="F206" s="96"/>
-      <c r="G206" s="96"/>
-      <c r="H206" s="96"/>
-      <c r="I206" s="96"/>
-      <c r="J206" s="96"/>
-      <c r="K206" s="96"/>
-      <c r="L206" s="96"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="93"/>
+      <c r="E206" s="93"/>
+      <c r="F206" s="93"/>
+      <c r="G206" s="93"/>
+      <c r="H206" s="93"/>
+      <c r="I206" s="93"/>
+      <c r="J206" s="93"/>
+      <c r="K206" s="93"/>
+      <c r="L206" s="93"/>
     </row>
     <row r="207" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="96" t="s">
+      <c r="A207" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B207" s="96"/>
-      <c r="C207" s="96"/>
-      <c r="D207" s="96"/>
-      <c r="E207" s="96"/>
-      <c r="F207" s="96"/>
-      <c r="G207" s="96"/>
-      <c r="H207" s="96"/>
-      <c r="I207" s="96"/>
-      <c r="J207" s="96"/>
-      <c r="K207" s="96"/>
-      <c r="L207" s="96"/>
+      <c r="B207" s="93"/>
+      <c r="C207" s="93"/>
+      <c r="D207" s="93"/>
+      <c r="E207" s="93"/>
+      <c r="F207" s="93"/>
+      <c r="G207" s="93"/>
+      <c r="H207" s="93"/>
+      <c r="I207" s="93"/>
+      <c r="J207" s="93"/>
+      <c r="K207" s="93"/>
+      <c r="L207" s="93"/>
     </row>
     <row r="208" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="96" t="s">
+      <c r="A208" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B208" s="96"/>
-      <c r="C208" s="96"/>
-      <c r="D208" s="96"/>
-      <c r="E208" s="96"/>
-      <c r="F208" s="96"/>
-      <c r="G208" s="96"/>
-      <c r="H208" s="96"/>
-      <c r="I208" s="96"/>
-      <c r="J208" s="96"/>
-      <c r="K208" s="96"/>
-      <c r="L208" s="96"/>
+      <c r="B208" s="93"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="93"/>
+      <c r="E208" s="93"/>
+      <c r="F208" s="93"/>
+      <c r="G208" s="93"/>
+      <c r="H208" s="93"/>
+      <c r="I208" s="93"/>
+      <c r="J208" s="93"/>
+      <c r="K208" s="93"/>
+      <c r="L208" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A208:L208"/>
-    <mergeCell ref="A202:L202"/>
-    <mergeCell ref="A203:L203"/>
-    <mergeCell ref="A204:L204"/>
-    <mergeCell ref="A205:L205"/>
-    <mergeCell ref="A206:L206"/>
-    <mergeCell ref="A207:L207"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A189:L189"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A183:L183"/>
+    <mergeCell ref="A184:L184"/>
+    <mergeCell ref="A185:L185"/>
+    <mergeCell ref="A186:L186"/>
+    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="A188:L188"/>
     <mergeCell ref="A201:L201"/>
     <mergeCell ref="A190:L190"/>
     <mergeCell ref="A191:L191"/>
@@ -25676,28 +25691,13 @@
     <mergeCell ref="A198:L198"/>
     <mergeCell ref="A199:L199"/>
     <mergeCell ref="A200:L200"/>
-    <mergeCell ref="A189:L189"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A183:L183"/>
-    <mergeCell ref="A184:L184"/>
-    <mergeCell ref="A185:L185"/>
-    <mergeCell ref="A186:L186"/>
-    <mergeCell ref="A187:L187"/>
-    <mergeCell ref="A188:L188"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A208:L208"/>
+    <mergeCell ref="A202:L202"/>
+    <mergeCell ref="A203:L203"/>
+    <mergeCell ref="A204:L204"/>
+    <mergeCell ref="A205:L205"/>
+    <mergeCell ref="A206:L206"/>
+    <mergeCell ref="A207:L207"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A200" r:id="rId1" xr:uid="{86E896FD-DCD9-40B0-B06A-B98B60990D4E}"/>
